--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarissacardoso/Desktop/CCT_MScDataAnalytics/CA2_v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarissacardoso/Desktop/CCT_MScDataAnalytics/CA2-2020274/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC22A0C-DC48-6B43-8D20-E52B9EA15E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FF1FA7-2677-A248-85A1-18E300634FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{540701EF-9F25-5342-BDB1-20B73FBB633C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Name of file</t>
   </si>
@@ -51,6 +51,42 @@
   </si>
   <si>
     <t>File contents</t>
+  </si>
+  <si>
+    <t>Investment by assetDwellings, % of GFCF, 2012 – 2022</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>Employment by activityConstruction, Thousand persons, 2012 – 2022</t>
+  </si>
+  <si>
+    <t>Investment_by_asset/Dwellings.csv</t>
+  </si>
+  <si>
+    <t>gdp(per_capita)_euro.csv</t>
+  </si>
+  <si>
+    <t>Employment_by_activity/Construction.csv</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP)Total, US dollars/capita, 2012 – 2022Source: Aggregate National Accounts, SNA 2008 (or SNA 1993): Gross domestic product</t>
+  </si>
+  <si>
+    <t>Each asset is measured as percentage of total gross fixed capital formation. All OECD countries compile their data according to the 2008 System of National Accounts (SNA).</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP) is the standard measure of the value added created through the production of goods and services in a country during a certain period. As such, it also measures the income earned from that production, or the total amount spent on final goods and services (less imports). While GDP is the single most important indicator to capture economic activity, it falls short of providing a suitable measure of people's material well-being for which alternative indicators may be more appropriate. This indicator is based on nominal GDP (also called GDP at current prices or GDP in value) and is available in different measures: US dollars and US dollars per capita (current PPPs). All OECD countries compile their data according to the 2008 System of National Accounts (SNA). This indicator is less suited for comparisons over time, as developments are not only caused by real growth, but also by changes in prices and PPPs.</t>
+  </si>
+  <si>
+    <t>Asset types in this indicator include six groups: dwellings (excluding land); other buildings and structures (roads, bridges, airfields, dams, etc.); transport equipment (ships, trains, aircraft, etc.); cultivated biological resources (managed forests, livestock raised for milk production, etc.); and intellectual property products (such as R&amp;D, mineral exploration, software and databases, and literary and artistic originals, etc.). It is also calculated for Information and Communication Technology (ICT) equipment (computer software and databases, telecommunications equipment and computer hardware). Each asset is measured as percentage of total gross fixed capital formation. All OECD countries compile their data according to the 2008 System of National Accounts (SNA).</t>
+  </si>
+  <si>
+    <t>Employment by industry is broken down by agriculture, construction, industry including construction, manufacturing and services activities. This indicator is seasonally adjusted and it is measured in thousands of people.</t>
   </si>
 </sst>
 </file>
@@ -86,8 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,27 +441,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5430F0-6800-A94C-9696-622EBC027158}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="66.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
@@ -430,6 +470,60 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarissacardoso/Desktop/CCT_MScDataAnalytics/CA2-2020274/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FF1FA7-2677-A248-85A1-18E300634FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BA037-CCE7-8E41-AB24-7F11CD13AEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{540701EF-9F25-5342-BDB1-20B73FBB633C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Name of file</t>
   </si>
@@ -87,19 +87,64 @@
   </si>
   <si>
     <t>Employment by industry is broken down by agriculture, construction, industry including construction, manufacturing and services activities. This indicator is seasonally adjusted and it is measured in thousands of people.</t>
+  </si>
+  <si>
+    <t>['gdp(per_capita)_2022.csv',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '.DS_Store',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Investment_by_asset:Dwellings.csv',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gdp(per_capita)_euro.csv',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Employment_by_activity:Construction.csv']</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>gdp_2022</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>gdp_euro</t>
+  </si>
+  <si>
+    <t>construct_employ</t>
+  </si>
+  <si>
+    <t>Variable name in Jupyter Notebook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,11 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5430F0-6800-A94C-9696-622EBC027158}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,6 +573,52 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
